--- a/www.eia.gov/electricity/monthly/xls/table_4_10_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_10_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
-  <si>
-    <t>Table 4.10.B. Average Cost of Coal Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="75">
+  <si>
+    <t>Table 4.10.B. Average Cost of Coal Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -58,10 +58,10 @@
     <t>New England</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>Connecticut</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>--</t>
@@ -1294,40 +1294,40 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
-        <v>3.1</v>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="10">
-        <v>3.59</v>
-      </c>
-      <c r="D5" s="11">
-        <v>-0.14000000000000001</v>
+        <v>3.52</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="10">
         <v>4.07</v>
       </c>
       <c r="F5" s="10">
-        <v>3.93</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2.86</v>
+        <v>3.87</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="H5" s="10">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>13</v>
@@ -1336,10 +1336,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>13</v>
@@ -1362,10 +1362,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1373,13 +1373,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>13</v>
@@ -1388,10 +1388,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1402,16 +1402,16 @@
         <v>4.07</v>
       </c>
       <c r="C9" s="13">
-        <v>3.93</v>
+        <v>3.87</v>
       </c>
       <c r="D9" s="14">
-        <v>3.5999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="13">
         <v>4.07</v>
       </c>
       <c r="F9" s="13">
-        <v>3.93</v>
+        <v>3.87</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>13</v>
@@ -1477,10 +1477,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="10">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="D12" s="11">
         <v>-0.15</v>
@@ -1492,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="10">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="H12" s="10">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,13 +1503,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="13">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>13</v>
@@ -1518,10 +1518,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="13">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,13 +1529,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="13">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>13</v>
@@ -1544,10 +1544,10 @@
         <v>13</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="13">
-        <v>3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,10 +1555,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="13">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C15" s="13">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="D15" s="14">
         <v>-0.16</v>
@@ -1570,10 +1570,10 @@
         <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H15" s="13">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,10 +1593,10 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F16" s="10">
-        <v>2.2999999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="G16" s="10">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H16" s="10">
         <v>2.04</v>
@@ -1607,25 +1607,25 @@
         <v>24</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="13">
         <v>1.92</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="F17" s="13">
         <v>2.06</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,13 +1633,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13">
         <v>2.25</v>
@@ -1648,10 +1648,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="F19" s="13">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,25 +1685,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="13">
-        <v>2.0699999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F20" s="13">
         <v>2.13</v>
       </c>
       <c r="G20" s="13">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,19 +1711,19 @@
         <v>28</v>
       </c>
       <c r="B21" s="13">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="C21" s="13">
-        <v>2.29</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D21" s="14">
         <v>-3.1E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="F21" s="13">
-        <v>2.29</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>13</v>
@@ -1737,16 +1737,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="10">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="C22" s="10">
         <v>1.73</v>
       </c>
       <c r="D22" s="11">
-        <v>-1.2E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E22" s="10">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F22" s="10">
         <v>1.73</v>
@@ -1763,19 +1763,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C23" s="13">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.03</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="F23" s="13">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>13</v>
@@ -1789,19 +1789,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="13">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="C24" s="13">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="D24" s="14">
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E24" s="13">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="F24" s="13">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>13</v>
@@ -1818,16 +1818,16 @@
         <v>2.06</v>
       </c>
       <c r="C25" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D25" s="14">
-        <v>7.9000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E25" s="13">
         <v>2.06</v>
       </c>
       <c r="F25" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>13</v>
@@ -1841,19 +1841,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="13">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="C26" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D26" s="14">
-        <v>-2.5999999999999999E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F26" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -1896,16 +1896,16 @@
         <v>1.53</v>
       </c>
       <c r="C28" s="13">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="D28" s="14">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E28" s="13">
         <v>1.53</v>
       </c>
       <c r="F28" s="13">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
@@ -1922,16 +1922,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C29" s="13">
-        <v>2.16</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D29" s="14">
-        <v>3.6999999999999998E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E29" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="F29" s="13">
-        <v>2.16</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>13</v>
@@ -1948,22 +1948,22 @@
         <v>2.75</v>
       </c>
       <c r="C30" s="10">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="D30" s="11">
-        <v>-6.8000000000000005E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E30" s="10">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="F30" s="10">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="G30" s="10">
-        <v>2.52</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H30" s="10">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,13 +1971,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>13</v>
@@ -1986,10 +1986,10 @@
         <v>13</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,25 +2023,25 @@
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="13">
         <v>3.02</v>
       </c>
       <c r="F33" s="13">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2049,19 +2049,19 @@
         <v>41</v>
       </c>
       <c r="B34" s="13">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="C34" s="13">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="D34" s="14">
-        <v>-4.7E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E34" s="13">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="F34" s="13">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>13</v>
@@ -2074,14 +2074,14 @@
       <c r="A35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13">
-        <v>2.83</v>
+      <c r="B35" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="13">
-        <v>2.88</v>
-      </c>
-      <c r="D35" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>2.87</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>13</v>
@@ -2089,11 +2089,11 @@
       <c r="F35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="13">
-        <v>2.83</v>
+      <c r="G35" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="H35" s="13">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2101,19 +2101,19 @@
         <v>43</v>
       </c>
       <c r="B36" s="13">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="C36" s="13">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="D36" s="14">
         <v>-0.11</v>
       </c>
       <c r="E36" s="13">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="F36" s="13">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>13</v>
@@ -2127,7 +2127,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="13">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="C37" s="13">
         <v>3.56</v>
@@ -2136,7 +2136,7 @@
         <v>-0.1</v>
       </c>
       <c r="E37" s="13">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="F37" s="13">
         <v>3.56</v>
@@ -2153,25 +2153,25 @@
         <v>45</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2.95</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="13">
         <v>2.9</v>
       </c>
       <c r="F38" s="13">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,25 +2179,25 @@
         <v>46</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="13">
-        <v>2.31</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="13">
         <v>2.37</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="13">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2205,13 +2205,13 @@
         <v>47</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="10">
         <v>2.2000000000000002</v>
@@ -2220,10 +2220,10 @@
         <v>2.33</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2231,16 +2231,16 @@
         <v>48</v>
       </c>
       <c r="B41" s="13">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="C41" s="13">
         <v>2.4500000000000002</v>
       </c>
       <c r="D41" s="14">
-        <v>-3.3000000000000002E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="F41" s="13">
         <v>2.4500000000000002</v>
@@ -2260,16 +2260,16 @@
         <v>2.12</v>
       </c>
       <c r="C42" s="13">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D42" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E42" s="13">
         <v>2.12</v>
       </c>
       <c r="F42" s="13">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>13</v>
@@ -2283,25 +2283,25 @@
         <v>50</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="13">
         <v>2.68</v>
       </c>
       <c r="F43" s="13">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2309,19 +2309,19 @@
         <v>51</v>
       </c>
       <c r="B44" s="13">
-        <v>2.2200000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="C44" s="13">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="D44" s="14">
-        <v>-7.4999999999999997E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>2.2200000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="F44" s="13">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>13</v>
@@ -2350,10 +2350,10 @@
         <v>2.19</v>
       </c>
       <c r="G45" s="10">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H45" s="10">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2361,25 +2361,25 @@
         <v>53</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="13">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F46" s="13">
         <v>2.2599999999999998</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2387,25 +2387,25 @@
         <v>54</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="13">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="F47" s="13">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2413,13 +2413,13 @@
         <v>55</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="13">
         <v>1.91</v>
@@ -2428,10 +2428,10 @@
         <v>1.97</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2439,25 +2439,25 @@
         <v>56</v>
       </c>
       <c r="B49" s="13">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="C49" s="13">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.1</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E49" s="13">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="F49" s="13">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="G49" s="13">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H49" s="13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2465,25 +2465,25 @@
         <v>57</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="10">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F50" s="10">
         <v>1.93</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2517,16 +2517,16 @@
         <v>59</v>
       </c>
       <c r="B52" s="13">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C52" s="13">
         <v>1.83</v>
       </c>
       <c r="D52" s="14">
-        <v>2.7E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E52" s="13">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F52" s="13">
         <v>1.83</v>
@@ -2569,25 +2569,25 @@
         <v>61</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="13">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2595,25 +2595,25 @@
         <v>62</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="13">
         <v>2.02</v>
       </c>
       <c r="F55" s="13">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,19 +2621,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="13">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="C56" s="13">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="E56" s="13">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="F56" s="13">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>13</v>
@@ -2647,16 +2647,16 @@
         <v>64</v>
       </c>
       <c r="B57" s="13">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="C57" s="13">
         <v>1.95</v>
       </c>
       <c r="D57" s="14">
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E57" s="13">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="F57" s="13">
         <v>1.95</v>
@@ -2673,25 +2673,25 @@
         <v>65</v>
       </c>
       <c r="B58" s="13">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="13">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="F58" s="13">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,25 +2699,25 @@
         <v>66</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="10">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F59" s="10">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2751,19 +2751,19 @@
         <v>68</v>
       </c>
       <c r="B61" s="13">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C61" s="13">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="D61" s="14">
-        <v>-5.5E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E61" s="13">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F61" s="13">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>13</v>
@@ -2777,13 +2777,13 @@
         <v>69</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>13</v>
@@ -2792,10 +2792,10 @@
         <v>13</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2803,25 +2803,25 @@
         <v>70</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="10">
         <v>3.09</v>
       </c>
       <c r="F63" s="10">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,16 +2832,16 @@
         <v>3.09</v>
       </c>
       <c r="C64" s="13">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="D64" s="14">
-        <v>-2.8000000000000001E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E64" s="13">
         <v>3.09</v>
       </c>
       <c r="F64" s="13">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>13</v>
@@ -2855,13 +2855,13 @@
         <v>72</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>13</v>
@@ -2870,10 +2870,10 @@
         <v>13</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2884,10 +2884,10 @@
         <v>2.11</v>
       </c>
       <c r="C66" s="10">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D66" s="11">
-        <v>-5.3999999999999999E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="E66" s="10">
         <v>2.17</v>
@@ -2899,7 +2899,7 @@
         <v>1.94</v>
       </c>
       <c r="H66" s="10">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="186.95" customHeight="1" x14ac:dyDescent="0.25">
